--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashjambhulkar/Desktop/objectoriented/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7653646-B22B-2D45-8B13-646B6E2C6A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F223A4BE-6AD5-3D43-9F64-EB350B0A5493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{DD596149-A0D9-D24C-B3D5-9F7D0D321655}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{DD596149-A0D9-D24C-B3D5-9F7D0D321655}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="5" r:id="rId1"/>
     <sheet name="Trees" sheetId="1" r:id="rId2"/>
-    <sheet name="Bloomberg" sheetId="10" r:id="rId3"/>
-    <sheet name="Graphs" sheetId="9" r:id="rId4"/>
-    <sheet name="Arrays" sheetId="2" r:id="rId5"/>
-    <sheet name="Dynamic Programming" sheetId="3" r:id="rId6"/>
-    <sheet name="Concept Based" sheetId="6" r:id="rId7"/>
-    <sheet name="Personal Life" sheetId="8" r:id="rId8"/>
+    <sheet name="Graphs" sheetId="9" r:id="rId3"/>
+    <sheet name="Arrays" sheetId="2" r:id="rId4"/>
+    <sheet name="Dynamic Programming" sheetId="3" r:id="rId5"/>
+    <sheet name="Concept Based" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal Life" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,36 +32,15 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="266">
   <si>
     <t>Hard</t>
   </si>
@@ -860,304 +838,13 @@
   </si>
   <si>
     <t>traversing throught the binary tree from right child to right parent and return the successor</t>
-  </si>
-  <si>
-    <t>Number of Ships in a Rectangle</t>
-  </si>
-  <si>
-    <t>Flatten a Multilevel Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Remove All Adjacent Duplicates in String II</t>
-  </si>
-  <si>
-    <t>Decode String</t>
-  </si>
-  <si>
-    <t>Invalid Transactions</t>
-  </si>
-  <si>
-    <t>Number of Islands</t>
-  </si>
-  <si>
-    <t>Design Browser History</t>
-  </si>
-  <si>
-    <t>Two City Scheduling</t>
-  </si>
-  <si>
-    <t>LRU Cache</t>
-  </si>
-  <si>
-    <t>Meeting Rooms II</t>
-  </si>
-  <si>
-    <t>Add Two Numbers II</t>
-  </si>
-  <si>
-    <t>All Paths From Source to Target</t>
-  </si>
-  <si>
-    <t>Binary Tree Vertical Order Traversal</t>
-  </si>
-  <si>
-    <t>Design A Leaderboard</t>
-  </si>
-  <si>
-    <t>First Unique Character in a String</t>
-  </si>
-  <si>
-    <t>Word Break II</t>
-  </si>
-  <si>
-    <t>Sort Characters By Frequency</t>
-  </si>
-  <si>
-    <t>Valid Anagram</t>
-  </si>
-  <si>
-    <t>Add Two Numbers</t>
-  </si>
-  <si>
-    <t>Valid Parentheses</t>
-  </si>
-  <si>
-    <t>Design Bounded Blocking Queue</t>
-  </si>
-  <si>
-    <t>Min Stack</t>
-  </si>
-  <si>
-    <t>Shuffle an Array</t>
-  </si>
-  <si>
-    <t>Island Perimeter</t>
-  </si>
-  <si>
-    <t>Kill Process</t>
-  </si>
-  <si>
-    <t>Word Squares</t>
-  </si>
-  <si>
-    <t>Integer to Roman</t>
-  </si>
-  <si>
-    <t>Distant Barcodes</t>
-  </si>
-  <si>
-    <t>Longest Substring Without Repeating Characters</t>
-  </si>
-  <si>
-    <t>Shortest Palindrome</t>
-  </si>
-  <si>
-    <t>Minimum Number of Steps to Make Two Strings Anagram</t>
-  </si>
-  <si>
-    <t>Maximum Number of Occurrences of a Substring</t>
-  </si>
-  <si>
-    <t>Design Snake Game</t>
-  </si>
-  <si>
-    <t>Top K Frequent Elements</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>Broken Calculator</t>
-  </si>
-  <si>
-    <t>Coin Change</t>
-  </si>
-  <si>
-    <t>Subsets II</t>
-  </si>
-  <si>
-    <t>Encode and Decode TinyURL</t>
-  </si>
-  <si>
-    <t>Minimum Insertion Steps to Make a String Palindrome</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Number of Dice Rolls With Target Sum</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Find K Closest Elements</t>
-  </si>
-  <si>
-    <t>Remove K Digits</t>
-  </si>
-  <si>
-    <t>Number of Distinct Islands</t>
-  </si>
-  <si>
-    <t>LFU Cache</t>
-  </si>
-  <si>
-    <t>Sqrt(x)</t>
-  </si>
-  <si>
-    <t>Coin Change 2</t>
-  </si>
-  <si>
-    <t>Letter Case Permutation</t>
-  </si>
-  <si>
-    <t>Longest Substring with At Least K Repeating Characters</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>Copy List with Random Pointer</t>
-  </si>
-  <si>
-    <t>Substring with Concatenation of All Words</t>
-  </si>
-  <si>
-    <t>Design Tic-Tac-Toe</t>
-  </si>
-  <si>
-    <t>Add Digits</t>
-  </si>
-  <si>
-    <t>Longest Repeating Character Replacement</t>
-  </si>
-  <si>
-    <t>Nim Game</t>
-  </si>
-  <si>
-    <t>Accounts Merge</t>
-  </si>
-  <si>
-    <t>Top K Frequent Words</t>
-  </si>
-  <si>
-    <t>Count of Smaller Numbers After Self</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock IV</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Integer to English Words</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>Peak Index in a Mountain Array</t>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-  </si>
-  <si>
-    <t>Wildcard Matching</t>
-  </si>
-  <si>
-    <t>Minimum Time Visiting All Points</t>
-  </si>
-  <si>
-    <t>Interval List Intersections</t>
-  </si>
-  <si>
-    <t>Delete Node in a Linked List</t>
-  </si>
-  <si>
-    <t>Single Number</t>
-  </si>
-  <si>
-    <t>Counting Bits</t>
-  </si>
-  <si>
-    <t>Next Greater Element I</t>
-  </si>
-  <si>
-    <t>Decode Ways</t>
-  </si>
-  <si>
-    <t>Maximal Square</t>
-  </si>
-  <si>
-    <t>Reverse Linked List II</t>
-  </si>
-  <si>
-    <t>Word Search II</t>
-  </si>
-  <si>
-    <t>Group Anagrams</t>
-  </si>
-  <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
-    <t>Add Strings</t>
-  </si>
-  <si>
-    <t>Odd Even Linked List</t>
-  </si>
-  <si>
-    <t>ZigZag Conversion</t>
-  </si>
-  <si>
-    <t>How Many Numbers Are Smaller Than the Current Number</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Running Sum of 1d Array</t>
-  </si>
-  <si>
-    <t>Palindrome Number</t>
-  </si>
-  <si>
-    <t>Swap Nodes in Pairs</t>
-  </si>
-  <si>
-    <t>Kids With the Greatest Number of Candies</t>
-  </si>
-  <si>
-    <t>Intersection of Two Linked Lists</t>
-  </si>
-  <si>
-    <t>Fizz Buzz</t>
-  </si>
-  <si>
-    <t>Palindrome Linked List</t>
-  </si>
-  <si>
-    <t>Permutations</t>
-  </si>
-  <si>
-    <t>Roman to Integer</t>
-  </si>
-  <si>
-    <t>Remove Nth Node From End of List</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1278,13 +965,6 @@
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF424242"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -1315,7 +995,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1352,12 +1032,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1381,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
@@ -1410,7 +1084,6 @@
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1466,11 +1139,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1482,7 +1155,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1494,13 +1167,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2040,10 +1706,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Dashboard!$A$4:$A$15</c:f>
+              <c:f>Dashboard!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44053</c:v>
                 </c:pt>
@@ -2060,29 +1726,17 @@
                   <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44076</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$F$4:$F$15</c:f>
+              <c:f>Dashboard!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2098,10 +1752,7 @@
                 <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2390,10 +2041,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Dashboard!$A$4:$A$15</c:f>
+              <c:f>Dashboard!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44053</c:v>
                 </c:pt>
@@ -2410,29 +2061,17 @@
                   <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44076</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$B$4:$B$15</c:f>
+              <c:f>Dashboard!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2483,10 +2122,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Dashboard!$A$4:$A$15</c:f>
+              <c:f>Dashboard!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44053</c:v>
                 </c:pt>
@@ -2503,29 +2142,17 @@
                   <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44076</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$C$4:$C$15</c:f>
+              <c:f>Dashboard!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -2576,10 +2203,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Dashboard!$A$4:$A$15</c:f>
+              <c:f>Dashboard!$A$4:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44053</c:v>
                 </c:pt>
@@ -2596,29 +2223,17 @@
                   <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44076</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$D$4:$D$15</c:f>
+              <c:f>Dashboard!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2935,10 +2550,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Dashboard!$A$4:$A$14</c:f>
+              <c:f>Dashboard!$A$4:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>44053</c:v>
                 </c:pt>
@@ -2955,29 +2570,17 @@
                   <c:v>44071</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44072</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44076</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Dashboard!$E$4:$E$14</c:f>
+              <c:f>Dashboard!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -2992,9 +2595,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,13 +4508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30237</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>181881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>67581</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4944,8 +4544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE8BBAFD-EB38-4C4C-8249-B455B8E7C891}" name="Table1" displayName="Table1" ref="A3:G15" totalsRowShown="0" headerRowDxfId="32">
-  <autoFilter ref="A3:G15" xr:uid="{1CE8AE14-75A1-8040-B83C-1977D6890556}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE8BBAFD-EB38-4C4C-8249-B455B8E7C891}" name="Table1" displayName="Table1" ref="A3:G10" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A3:G10" xr:uid="{1CE8AE14-75A1-8040-B83C-1977D6890556}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F6E480A6-2E3F-9E44-BF95-6A4F11605F9F}" name="Date"/>
     <tableColumn id="2" xr3:uid="{AB51B9DC-4273-8E4B-83CB-C0448AA68B8E}" name="Easy"/>
@@ -5320,13 +4920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1291A87-6E3F-824B-9AC0-42234D722AE2}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
@@ -5338,81 +4938,81 @@
     <col min="10" max="10" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="46" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="43" customFormat="1">
+    <row r="4" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>44053</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <v>3</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>4</v>
       </c>
-      <c r="E4" s="42">
-        <f t="shared" ref="E4:E15" si="0">SUM(B4:D4)</f>
+      <c r="E4" s="41">
+        <f t="shared" ref="E4:E10" si="0">SUM(B4:D4)</f>
         <v>20</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>100</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="44">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
         <v>44054</v>
       </c>
       <c r="B5">
@@ -5435,8 +5035,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="44">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
         <v>44056</v>
       </c>
       <c r="B6">
@@ -5460,8 +5060,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="44">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
         <v>44070</v>
       </c>
       <c r="B7">
@@ -5478,15 +5078,15 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F15" si="1">SUM(B7:D7)*100/20</f>
+        <f t="shared" ref="F7:F10" si="1">SUM(B7:D7)*100/20</f>
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="44">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
         <v>44071</v>
       </c>
       <c r="B8">
@@ -5508,53 +5108,17 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="44">
-        <v>44072</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="44">
-        <v>44073</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="22">
-      <c r="A11" s="44">
-        <v>44074</v>
-      </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" ht="22">
-      <c r="A12" s="44">
-        <v>44075</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="22">
-      <c r="A13" s="44">
-        <v>44076</v>
-      </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="44"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5575,11 +5139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D085E8C8-143E-1B4F-87F2-78502CDF307F}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="128" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A42" zoomScale="128" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="52.83203125" style="8" customWidth="1"/>
@@ -5587,31 +5151,31 @@
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="16" style="8" customWidth="1"/>
-    <col min="7" max="7" width="79.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="79.6640625" style="39" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" ht="17">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -5630,11 +5194,11 @@
       <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>297</v>
       </c>
@@ -5654,7 +5218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>199</v>
       </c>
@@ -5674,7 +5238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>124</v>
       </c>
@@ -5693,10 +5257,10 @@
       <c r="F6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="18">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>987</v>
       </c>
@@ -5715,11 +5279,11 @@
       <c r="F7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="34">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>236</v>
       </c>
@@ -5738,13 +5302,13 @@
       <c r="F8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>184</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="18">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>543</v>
       </c>
@@ -5761,11 +5325,11 @@
         <v>86</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="41"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>173</v>
       </c>
@@ -5784,11 +5348,11 @@
       <c r="F10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="18">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>105</v>
       </c>
@@ -5805,11 +5369,11 @@
         <v>86</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="11"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="18">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -5826,11 +5390,11 @@
         <v>86</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="41"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="34">
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>96</v>
       </c>
@@ -5849,13 +5413,13 @@
       <c r="F13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="40" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="34">
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>863</v>
       </c>
@@ -5874,13 +5438,13 @@
       <c r="F14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="40" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="18">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>938</v>
       </c>
@@ -5899,11 +5463,11 @@
       <c r="F15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="18">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>428</v>
       </c>
@@ -5918,11 +5482,11 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="41"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="11"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="34">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>545</v>
       </c>
@@ -5939,13 +5503,13 @@
         <v>86</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>187</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="18">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -5964,11 +5528,11 @@
       <c r="F18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="11"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="18">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>437</v>
       </c>
@@ -5987,13 +5551,13 @@
       <c r="F19" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>188</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="34">
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>366</v>
       </c>
@@ -6012,13 +5576,13 @@
       <c r="F20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>186</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="18">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>101</v>
       </c>
@@ -6037,12 +5601,12 @@
       <c r="F21" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="11"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="34">
-      <c r="A22" s="29">
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
         <v>1130</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -6060,13 +5624,13 @@
       <c r="F22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="40" t="s">
         <v>189</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>99</v>
       </c>
@@ -6081,11 +5645,11 @@
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="41"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="11"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>104</v>
       </c>
@@ -6104,11 +5668,11 @@
       <c r="F24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="11"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>108</v>
       </c>
@@ -6127,11 +5691,11 @@
       <c r="F25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="11"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>226</v>
       </c>
@@ -6151,7 +5715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="34">
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1110</v>
       </c>
@@ -6170,11 +5734,11 @@
       <c r="F27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18">
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>94</v>
       </c>
@@ -6194,7 +5758,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -6214,7 +5778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="34">
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>426</v>
       </c>
@@ -6233,11 +5797,11 @@
       <c r="F30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18">
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>449</v>
       </c>
@@ -6257,7 +5821,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18">
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>112</v>
       </c>
@@ -6277,7 +5841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>834</v>
       </c>
@@ -6297,7 +5861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="34">
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>114</v>
       </c>
@@ -6316,11 +5880,11 @@
       <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>979</v>
       </c>
@@ -6331,7 +5895,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>117</v>
       </c>
@@ -6351,7 +5915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>450</v>
       </c>
@@ -6371,7 +5935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>103</v>
       </c>
@@ -6391,7 +5955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18">
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>116</v>
       </c>
@@ -6411,7 +5975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18">
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1008</v>
       </c>
@@ -6430,11 +5994,11 @@
       <c r="F40" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="39" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18">
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>572</v>
       </c>
@@ -6454,7 +6018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="34">
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1123</v>
       </c>
@@ -6473,11 +6037,11 @@
       <c r="F42" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="39" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18">
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>617</v>
       </c>
@@ -6497,7 +6061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>951</v>
       </c>
@@ -6517,7 +6081,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18">
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>285</v>
       </c>
@@ -6537,7 +6101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>222</v>
       </c>
@@ -6557,7 +6121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18">
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>230</v>
       </c>
@@ -6577,7 +6141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18">
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>510</v>
       </c>
@@ -6596,11 +6160,11 @@
       <c r="F48" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G48" s="39" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18">
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>333</v>
       </c>
@@ -6609,7 +6173,7 @@
       </c>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="18">
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>257</v>
       </c>
@@ -6618,7 +6182,7 @@
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="18">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1026</v>
       </c>
@@ -6627,7 +6191,7 @@
       </c>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="18">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>653</v>
       </c>
@@ -6636,7 +6200,7 @@
       </c>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" ht="18">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>113</v>
       </c>
@@ -6645,7 +6209,7 @@
       </c>
       <c r="D53" s="17"/>
     </row>
-    <row r="54" spans="1:4" ht="18">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>107</v>
       </c>
@@ -6654,7 +6218,7 @@
       </c>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="1:4" ht="18">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>958</v>
       </c>
@@ -6663,7 +6227,7 @@
       </c>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="1:4" ht="18">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>129</v>
       </c>
@@ -6672,7 +6236,7 @@
       </c>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="1:4" ht="18">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>968</v>
       </c>
@@ -6681,7 +6245,7 @@
       </c>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" ht="18">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>337</v>
       </c>
@@ -6690,7 +6254,7 @@
       </c>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="1:4" ht="18">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>250</v>
       </c>
@@ -6699,7 +6263,7 @@
       </c>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="1:4" ht="18">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>95</v>
       </c>
@@ -6708,7 +6272,7 @@
       </c>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="1:4" ht="18">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>652</v>
       </c>
@@ -6717,7 +6281,7 @@
       </c>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="1:4" ht="18">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>662</v>
       </c>
@@ -6726,7 +6290,7 @@
       </c>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" ht="18">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>894</v>
       </c>
@@ -6735,7 +6299,7 @@
       </c>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" ht="18">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>669</v>
       </c>
@@ -6743,7 +6307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18">
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>145</v>
       </c>
@@ -6751,7 +6315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18">
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>110</v>
       </c>
@@ -6759,7 +6323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>536</v>
       </c>
@@ -6767,7 +6331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18">
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>1245</v>
       </c>
@@ -6775,7 +6339,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18">
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>1315</v>
       </c>
@@ -6783,7 +6347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18">
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>993</v>
       </c>
@@ -6791,7 +6355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18">
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>742</v>
       </c>
@@ -6799,7 +6363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18">
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>1145</v>
       </c>
@@ -6807,7 +6371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18">
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>687</v>
       </c>
@@ -6815,7 +6379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18">
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1302</v>
       </c>
@@ -6823,7 +6387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18">
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>144</v>
       </c>
@@ -6831,7 +6395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18">
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>515</v>
       </c>
@@ -6839,7 +6403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18">
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>272</v>
       </c>
@@ -6847,7 +6411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18">
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>235</v>
       </c>
@@ -9239,2404 +8803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F269E53D-360F-3E45-82BB-B7ABAC6CDE84}">
-  <dimension ref="B3:H160"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="192" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="5" max="5" width="41.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8">
-      <c r="D3" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="18">
-      <c r="D4" s="1" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">D4:D20</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="2:8" ht="18">
-      <c r="C5" s="1"/>
-      <c r="D5" s="63">
-        <v>1274</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" ht="18">
-      <c r="B6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="1">
-        <v>157</v>
-      </c>
-      <c r="D6" s="63">
-        <v>430</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" ht="18">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="63">
-        <v>1209</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" ht="18">
-      <c r="C8" s="6"/>
-      <c r="D8" s="63">
-        <v>394</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" ht="18">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>1169</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" ht="18">
-      <c r="C10" s="6"/>
-      <c r="D10" s="63">
-        <v>200</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8" ht="18">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>723</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" ht="18">
-      <c r="C12" s="6"/>
-      <c r="D12" s="63">
-        <v>987</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" ht="18">
-      <c r="C13" s="1"/>
-      <c r="D13" s="63">
-        <v>1472</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" ht="18">
-      <c r="C14" s="1"/>
-      <c r="D14" s="63">
-        <v>1029</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="18">
-      <c r="C15" s="6"/>
-      <c r="D15" s="63">
-        <v>146</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:8" ht="18">
-      <c r="C16" s="6"/>
-      <c r="D16" s="63">
-        <v>253</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="3:8" ht="18">
-      <c r="C17" s="6"/>
-      <c r="D17" s="63">
-        <v>445</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="3:8" ht="18">
-      <c r="C18" s="1"/>
-      <c r="D18" s="63">
-        <v>797</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8" ht="18">
-      <c r="C19" s="6"/>
-      <c r="D19" s="63">
-        <v>314</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8" ht="18">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>1244</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="3:8" ht="18">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <v>611</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="3:8" ht="18">
-      <c r="C22" s="6"/>
-      <c r="D22" s="1">
-        <v>98</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="3:8" ht="18">
-      <c r="C23" s="6"/>
-      <c r="D23" s="1">
-        <v>117</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="3:8" ht="18">
-      <c r="C24" s="6"/>
-      <c r="D24" s="1">
-        <v>387</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="3:8" ht="18">
-      <c r="C25" s="7"/>
-      <c r="D25" s="1">
-        <v>140</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:8" ht="18">
-      <c r="C26" s="6"/>
-      <c r="D26" s="1">
-        <v>380</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="3:8" ht="18">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>451</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:8" ht="18">
-      <c r="C28" s="6"/>
-      <c r="D28" s="1">
-        <v>79</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="3:8" ht="18">
-      <c r="C29" s="6"/>
-      <c r="D29" s="1">
-        <v>242</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="3:8" ht="18">
-      <c r="C30" s="6"/>
-      <c r="D30" s="63">
-        <v>2</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:8" ht="18">
-      <c r="C31" s="6"/>
-      <c r="D31" s="1">
-        <v>20</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="3:8" ht="18">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>1188</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="3:8" ht="18">
-      <c r="C33" s="6"/>
-      <c r="D33" s="1">
-        <v>56</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="3:8" ht="18">
-      <c r="C34" s="6"/>
-      <c r="D34" s="1">
-        <v>155</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="3:8" ht="18">
-      <c r="C35" s="6"/>
-      <c r="D35" s="1">
-        <v>384</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="3:8" ht="18">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>463</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="3:8" ht="18">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>582</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="3:8" ht="18">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>425</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="3:8" ht="18">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="3:8" ht="18">
-      <c r="C40" s="6"/>
-      <c r="D40" s="1">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="3:8" ht="18">
-      <c r="C41" s="6"/>
-      <c r="D41" s="1">
-        <v>42</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="3:8" ht="18">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>1054</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="3:8" ht="18">
-      <c r="C43" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="3:8" ht="18">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>1145</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="3:8" ht="18">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1">
-        <v>214</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="3:8" ht="18">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>1347</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="3:8" ht="18">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>1297</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="3:8" ht="18">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1">
-        <v>353</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="3:8" ht="18">
-      <c r="C49" s="6"/>
-      <c r="D49" s="1">
-        <v>347</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="3:8" ht="18">
-      <c r="C50" s="6"/>
-      <c r="D50" s="1">
-        <v>23</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="3:8" ht="18">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1">
-        <v>991</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="3:8" ht="18">
-      <c r="C52" s="6"/>
-      <c r="D52" s="1">
-        <v>621</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="3:8" ht="18">
-      <c r="C53" s="6"/>
-      <c r="D53" s="1">
-        <v>322</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="3:8" ht="18">
-      <c r="C54" s="6"/>
-      <c r="D54" s="1">
-        <v>53</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="3:8" ht="18">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1">
-        <v>90</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="3:8" ht="18">
-      <c r="C56" s="6"/>
-      <c r="D56" s="1">
-        <v>535</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="3:8" ht="18">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1">
-        <v>1312</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="3:8" ht="18">
-      <c r="C58" s="6"/>
-      <c r="D58" s="1">
-        <v>15</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="3:8" ht="18">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="3:8" ht="18">
-      <c r="C60" s="6"/>
-      <c r="D60" s="1">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="3:8" ht="18">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1">
-        <v>1155</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="3:8" ht="18">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>529</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="3:8" ht="18">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1">
-        <v>658</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="3:8" ht="18">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>399</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="3:8" ht="18">
-      <c r="C65" s="6"/>
-      <c r="D65" s="1">
-        <v>105</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="3:8" ht="18">
-      <c r="C66" s="6"/>
-      <c r="D66" s="1">
-        <v>33</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="3:8" ht="18">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1">
-        <v>402</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="3:8" ht="18">
-      <c r="C68" s="6"/>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="3:8" ht="18">
-      <c r="C69" s="6"/>
-      <c r="D69" s="1">
-        <v>114</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="3:8" ht="18">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
-        <v>1123</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="3:8" ht="18">
-      <c r="C71" s="6"/>
-      <c r="D71" s="1">
-        <v>694</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="3:8" ht="18">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
-        <v>332</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="3:8" ht="18">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>460</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="3:8" ht="18">
-      <c r="C74" s="6"/>
-      <c r="D74" s="1">
-        <v>102</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="3:8" ht="18">
-      <c r="C75" s="6"/>
-      <c r="D75" s="1">
-        <v>69</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="3:8" ht="18">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>518</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="3:8" ht="18">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <v>729</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="3:8" ht="18">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1">
-        <v>784</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F78" s="3"/>
-      <c r="G78" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="3:8" ht="18">
-      <c r="C79" s="6"/>
-      <c r="D79" s="1">
-        <v>85</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="3:8" ht="18">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1">
-        <v>395</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="3:8" ht="18">
-      <c r="C81" s="6"/>
-      <c r="D81" s="1">
-        <v>695</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="3:8" ht="18">
-      <c r="C82" s="6"/>
-      <c r="D82" s="1">
-        <v>139</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="3:8" ht="18">
-      <c r="C83" s="6"/>
-      <c r="D83" s="1">
-        <v>138</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="3:8" ht="18">
-      <c r="C84" s="1"/>
-      <c r="D84" s="1">
-        <v>30</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="3:8" ht="18">
-      <c r="C85" s="6"/>
-      <c r="D85" s="1">
-        <v>348</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="3:8" ht="18">
-      <c r="C86" s="6"/>
-      <c r="D86" s="1">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="3:8" ht="18">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1">
-        <v>662</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="3:8" ht="18">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1">
-        <v>258</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="3:8" ht="18">
-      <c r="C89" s="6"/>
-      <c r="D89" s="1">
-        <v>173</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F89" s="3"/>
-      <c r="G89" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="3:8" ht="18">
-      <c r="C90" s="6"/>
-      <c r="D90" s="1">
-        <v>285</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="3"/>
-      <c r="G90" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="3:8" ht="18">
-      <c r="C91" s="6"/>
-      <c r="D91" s="1">
-        <v>209</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="3:8" ht="18">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
-        <v>424</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="3:8" ht="18">
-      <c r="C93" s="6"/>
-      <c r="D93" s="1">
-        <v>88</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="3:8" ht="18">
-      <c r="C94" s="6"/>
-      <c r="D94" s="1">
-        <v>116</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="3:8" ht="18">
-      <c r="C95" s="6"/>
-      <c r="D95" s="1">
-        <v>283</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="3:8" ht="18">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1">
-        <v>126</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="3:8" ht="18">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1">
-        <v>292</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="3:8" ht="18">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1">
-        <v>721</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="3:8" ht="18">
-      <c r="C99" s="6"/>
-      <c r="D99" s="1">
-        <v>692</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="3:8" ht="18">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1">
-        <v>315</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" spans="3:8" ht="18">
-      <c r="C101" s="6"/>
-      <c r="D101" s="1">
-        <v>188</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" spans="3:8" ht="18">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1">
-        <v>41</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="3:8" ht="18">
-      <c r="C103" s="6"/>
-      <c r="D103" s="1">
-        <v>863</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="3:8" ht="18">
-      <c r="C104" s="6"/>
-      <c r="D104" s="1">
-        <v>64</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="5"/>
-    </row>
-    <row r="105" spans="3:8" ht="18">
-      <c r="C105" s="6"/>
-      <c r="D105" s="1">
-        <v>153</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="3:8" ht="18">
-      <c r="C106" s="6"/>
-      <c r="D106" s="1">
-        <v>5</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="3:8" ht="18">
-      <c r="C107" s="6"/>
-      <c r="D107" s="1">
-        <v>273</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="3:8" ht="18">
-      <c r="C108" s="6"/>
-      <c r="D108" s="1">
-        <v>21</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="3:8" ht="18">
-      <c r="C109" s="6"/>
-      <c r="D109" s="1">
-        <v>121</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="3:8" ht="18">
-      <c r="C110" s="6"/>
-      <c r="D110" s="1">
-        <v>31</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="G110" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="3:8" ht="18">
-      <c r="C111" s="6"/>
-      <c r="D111" s="1">
-        <v>199</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="3:8" ht="18">
-      <c r="C112" s="6"/>
-      <c r="D112" s="1">
-        <v>103</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="3:8" ht="18">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1">
-        <v>852</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="3:8" ht="18">
-      <c r="C114" s="6"/>
-      <c r="D114" s="1">
-        <v>54</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="3:8" ht="18">
-      <c r="C115" s="6"/>
-      <c r="D115" s="1">
-        <v>127</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F115" s="3"/>
-      <c r="G115" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H115" s="5"/>
-    </row>
-    <row r="116" spans="3:8" ht="18">
-      <c r="C116" s="6"/>
-      <c r="D116" s="1">
-        <v>112</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="3"/>
-      <c r="G116" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H116" s="5"/>
-    </row>
-    <row r="117" spans="3:8" ht="18">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1">
-        <v>44</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H117" s="5"/>
-    </row>
-    <row r="118" spans="3:8" ht="18">
-      <c r="C118" s="6"/>
-      <c r="D118" s="1">
-        <v>1266</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" spans="3:8" ht="18">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1">
-        <v>986</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="3:8" ht="18">
-      <c r="C120" s="6"/>
-      <c r="D120" s="1">
-        <v>237</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="3:8" ht="18">
-      <c r="C121" s="6"/>
-      <c r="D121" s="1">
-        <v>136</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H121" s="5"/>
-    </row>
-    <row r="122" spans="3:8" ht="18">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1">
-        <v>338</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="3:8" ht="18">
-      <c r="C123" s="6"/>
-      <c r="D123" s="1">
-        <v>496</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="3:8" ht="18">
-      <c r="C124" s="6"/>
-      <c r="D124" s="1">
-        <v>91</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H124" s="5"/>
-    </row>
-    <row r="125" spans="3:8" ht="18">
-      <c r="C125" s="6"/>
-      <c r="D125" s="1">
-        <v>221</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="3:8" ht="18">
-      <c r="C126" s="6"/>
-      <c r="D126" s="1">
-        <v>92</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H126" s="5"/>
-    </row>
-    <row r="127" spans="3:8" ht="18">
-      <c r="C127" s="6"/>
-      <c r="D127" s="1">
-        <v>212</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="3:8" ht="18">
-      <c r="C128" s="1"/>
-      <c r="D128" s="1">
-        <v>40</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H128" s="5"/>
-    </row>
-    <row r="129" spans="3:8" ht="18">
-      <c r="C129" s="6"/>
-      <c r="D129" s="1">
-        <v>49</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" spans="3:8" ht="18">
-      <c r="C130" s="6"/>
-      <c r="D130" s="1">
-        <v>84</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F130" s="3"/>
-      <c r="G130" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="3:8" ht="18">
-      <c r="C131" s="6"/>
-      <c r="D131" s="1">
-        <v>74</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F131" s="3"/>
-      <c r="G131" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="3:8" ht="18">
-      <c r="C132" s="1"/>
-      <c r="D132" s="1">
-        <v>122</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="3:8" ht="18">
-      <c r="C133" s="6"/>
-      <c r="D133" s="1">
-        <v>125</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H133" s="5"/>
-    </row>
-    <row r="134" spans="3:8" ht="18">
-      <c r="C134" s="6"/>
-      <c r="D134" s="1">
-        <v>415</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F134" s="3"/>
-      <c r="G134" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="5"/>
-    </row>
-    <row r="135" spans="3:8" ht="18">
-      <c r="C135" s="6"/>
-      <c r="D135" s="1">
-        <v>110</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="3:8" ht="18">
-      <c r="C136" s="6"/>
-      <c r="D136" s="1">
-        <v>328</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F136" s="3"/>
-      <c r="G136" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="3:8" ht="18">
-      <c r="C137" s="1"/>
-      <c r="D137" s="1">
-        <v>6</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F137" s="3"/>
-      <c r="G137" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H137" s="5"/>
-    </row>
-    <row r="138" spans="3:8" ht="18">
-      <c r="C138" s="6"/>
-      <c r="D138" s="1">
-        <v>1365</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="3:8" ht="18">
-      <c r="C139" s="6"/>
-      <c r="D139" s="1">
-        <v>14</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F139" s="3"/>
-      <c r="G139" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H139" s="5"/>
-    </row>
-    <row r="140" spans="3:8" ht="18">
-      <c r="C140" s="1"/>
-      <c r="D140" s="1">
-        <v>1480</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H140" s="5"/>
-    </row>
-    <row r="141" spans="3:8" ht="18">
-      <c r="C141" s="1"/>
-      <c r="D141" s="1">
-        <v>9</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F141" s="3"/>
-      <c r="G141" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="3:8" ht="18">
-      <c r="C142" s="1"/>
-      <c r="D142" s="1">
-        <v>448</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H142" s="5"/>
-    </row>
-    <row r="143" spans="3:8" ht="18">
-      <c r="C143" s="6"/>
-      <c r="D143" s="1">
-        <v>162</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H143" s="5"/>
-    </row>
-    <row r="144" spans="3:8" ht="18">
-      <c r="C144" s="1"/>
-      <c r="D144" s="1">
-        <v>24</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H144" s="5"/>
-    </row>
-    <row r="145" spans="3:8" ht="18">
-      <c r="C145" s="6"/>
-      <c r="D145" s="1">
-        <v>124</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="3:8" ht="18">
-      <c r="C146" s="6"/>
-      <c r="D146" s="1">
-        <v>207</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="3:8" ht="18">
-      <c r="C147" s="6"/>
-      <c r="D147" s="1">
-        <v>287</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H147" s="5"/>
-    </row>
-    <row r="148" spans="3:8" ht="18">
-      <c r="C148" s="6"/>
-      <c r="D148" s="1">
-        <v>55</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H148" s="5"/>
-    </row>
-    <row r="149" spans="3:8" ht="18">
-      <c r="C149" s="1"/>
-      <c r="D149" s="1">
-        <v>1431</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H149" s="5"/>
-    </row>
-    <row r="150" spans="3:8" ht="18">
-      <c r="C150" s="6"/>
-      <c r="D150" s="1">
-        <v>160</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H150" s="5"/>
-    </row>
-    <row r="151" spans="3:8" ht="18">
-      <c r="C151" s="6"/>
-      <c r="D151" s="1">
-        <v>62</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H151" s="5"/>
-    </row>
-    <row r="152" spans="3:8" ht="18">
-      <c r="C152" s="6"/>
-      <c r="D152" s="1">
-        <v>236</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="3:8" ht="18">
-      <c r="C153" s="1"/>
-      <c r="D153" s="1">
-        <v>412</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H153" s="5"/>
-    </row>
-    <row r="154" spans="3:8" ht="18">
-      <c r="C154" s="1"/>
-      <c r="D154" s="1">
-        <v>152</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H154" s="5"/>
-    </row>
-    <row r="155" spans="3:8" ht="18">
-      <c r="C155" s="6"/>
-      <c r="D155" s="1">
-        <v>234</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H155" s="5"/>
-    </row>
-    <row r="156" spans="3:8" ht="18">
-      <c r="C156" s="6"/>
-      <c r="D156" s="1">
-        <v>46</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H156" s="5"/>
-    </row>
-    <row r="157" spans="3:8" ht="18">
-      <c r="C157" s="6"/>
-      <c r="D157" s="1">
-        <v>450</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="3:8" ht="18">
-      <c r="C158" s="6"/>
-      <c r="D158" s="1">
-        <v>101</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="3:8" ht="18">
-      <c r="C159" s="6"/>
-      <c r="D159" s="1">
-        <v>13</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="3:8" ht="18">
-      <c r="C160" s="6"/>
-      <c r="D160" s="1">
-        <v>19</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://leetcode.com/problems/number-of-ships-in-a-rectangle" xr:uid="{900626F8-18AF-C94A-9FF7-7129236AAD80}"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://leetcode.com/problems/flatten-a-multilevel-doubly-linked-list" xr:uid="{EE777499-9A31-3F47-9AE1-86E5DF4564B4}"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{D0FCDBB4-6B47-0C4A-AED1-197EB204CBC7}"/>
-    <hyperlink ref="E8" r:id="rId4" display="https://leetcode.com/problems/decode-string" xr:uid="{5D8A0D94-E84B-134B-9291-7CD8DBC0CDFD}"/>
-    <hyperlink ref="E9" r:id="rId5" display="https://leetcode.com/problems/invalid-transactions" xr:uid="{0C3C0537-D2ED-BA4F-94F2-0B490BF9DF7E}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://leetcode.com/problems/number-of-islands" xr:uid="{3E8F04E1-B2FE-1342-BDA0-A60057FFE15F}"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://leetcode.com/problems/candy-crush" xr:uid="{83A9E1BF-ADAA-844A-BA49-19A919AC1E5D}"/>
-    <hyperlink ref="E12" r:id="rId8" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{CE90817A-7B00-654E-A5BF-289B9EBCF5D0}"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://leetcode.com/problems/design-browser-history" xr:uid="{A767FAB9-1F95-3E41-A0EB-64149A3A8367}"/>
-    <hyperlink ref="E14" r:id="rId10" display="https://leetcode.com/problems/two-city-scheduling" xr:uid="{9A81BD94-457C-634C-9329-3488E2473D60}"/>
-    <hyperlink ref="E16" r:id="rId11" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{396A5DAB-753A-F94B-B7B2-D71966B3C6BB}"/>
-    <hyperlink ref="E17" r:id="rId12" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{FADC88B6-0686-794D-B218-74857C76BE6B}"/>
-    <hyperlink ref="E18" r:id="rId13" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{3DC0D393-F0B2-7C44-9575-556AC690FC04}"/>
-    <hyperlink ref="E19" r:id="rId14" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal" xr:uid="{1CB19B06-5FA4-194E-BCDE-0CB3FB115A6B}"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{709CC09A-BE0F-EE4C-9F00-E215BED599A3}"/>
-    <hyperlink ref="E21" r:id="rId16" display="https://leetcode.com/problems/valid-triangle-number" xr:uid="{CB98694F-9025-4145-B83B-A51A089A6B61}"/>
-    <hyperlink ref="E22" r:id="rId17" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{3DE83FD5-4A52-D347-8965-A757300E33E8}"/>
-    <hyperlink ref="E23" r:id="rId18" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{7B63B82B-152B-8347-9725-4C0350CDC440}"/>
-    <hyperlink ref="E24" r:id="rId19" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{815C06DA-3273-D34A-836F-FFF1DABF59FB}"/>
-    <hyperlink ref="E25" r:id="rId20" display="https://leetcode.com/problems/word-break-ii" xr:uid="{88AAD6ED-8EB2-1F44-BAC0-C4CCDC7035DE}"/>
-    <hyperlink ref="E26" r:id="rId21" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{1564B76B-A016-BC44-8A6C-8C3628B42BB0}"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{8FD06A40-DA23-8742-90A7-FE05494703E9}"/>
-    <hyperlink ref="E28" r:id="rId23" display="https://leetcode.com/problems/word-search" xr:uid="{DBA836D2-20A8-2C4F-B436-AB068A3146A0}"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://leetcode.com/problems/valid-anagram" xr:uid="{99C89DD1-BBAA-D243-9BE4-CCF7730D1DA3}"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://leetcode.com/problems/add-two-numbers" xr:uid="{1EB6F234-F3D7-964E-9D32-26F22DE763F0}"/>
-    <hyperlink ref="E31" r:id="rId26" display="https://leetcode.com/problems/valid-parentheses" xr:uid="{92882D68-D806-0446-814C-71B49EE0AA48}"/>
-    <hyperlink ref="E32" r:id="rId27" display="https://leetcode.com/problems/design-bounded-blocking-queue" xr:uid="{AE846D86-9A4C-5E46-B60D-90BBC9AC6EE2}"/>
-    <hyperlink ref="E33" r:id="rId28" display="https://leetcode.com/problems/merge-intervals" xr:uid="{04F47C74-ECD4-614A-A445-F0EFCBCCDDDA}"/>
-    <hyperlink ref="E34" r:id="rId29" display="https://leetcode.com/problems/min-stack" xr:uid="{651DD594-C624-F546-BB24-CCE3D35F108A}"/>
-    <hyperlink ref="E35" r:id="rId30" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{815A6933-8029-6246-8FF0-B3D62120056A}"/>
-    <hyperlink ref="E36" r:id="rId31" display="https://leetcode.com/problems/island-perimeter" xr:uid="{40F954B1-6CF2-5D41-87DF-C5FD571310BE}"/>
-    <hyperlink ref="E37" r:id="rId32" display="https://leetcode.com/problems/kill-process" xr:uid="{72EB88B8-0047-6546-8C36-9167C5B64D01}"/>
-    <hyperlink ref="E38" r:id="rId33" display="https://leetcode.com/problems/word-squares" xr:uid="{9D4C1D52-47B8-4D43-B114-B941D9670C79}"/>
-    <hyperlink ref="E39" r:id="rId34" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{4888BE1F-8CAF-9740-81B2-C8C18BFDA231}"/>
-    <hyperlink ref="E40" r:id="rId35" display="https://leetcode.com/problems/integer-to-roman" xr:uid="{3955C2F2-81DA-E24D-B464-C3CDD8D3438F}"/>
-    <hyperlink ref="E41" r:id="rId36" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{ABC8EDC9-EAD5-7949-AF81-9F98D89DA095}"/>
-    <hyperlink ref="E42" r:id="rId37" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{3F9829EC-F6D3-EC4D-896A-8946CEE5385E}"/>
-    <hyperlink ref="E43" r:id="rId38" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{1E2BB87F-B496-774F-82E6-2B4EFB953D07}"/>
-    <hyperlink ref="E44" r:id="rId39" display="https://leetcode.com/problems/binary-tree-coloring-game" xr:uid="{AE64452E-D09F-1846-99C4-141BEAD5F34C}"/>
-    <hyperlink ref="E45" r:id="rId40" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{5ADADD13-6621-9948-B3AE-F367006AE3EA}"/>
-    <hyperlink ref="E46" r:id="rId41" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{CD868A77-315C-9447-8520-552EF8C50E3B}"/>
-    <hyperlink ref="E47" r:id="rId42" display="https://leetcode.com/problems/maximum-number-of-occurrences-of-a-substring" xr:uid="{6996ABF1-5703-D544-B9DE-3D2E64C08C1E}"/>
-    <hyperlink ref="E48" r:id="rId43" display="https://leetcode.com/problems/design-snake-game" xr:uid="{7CAB56E8-6A45-3D4B-BCC1-22F8F8700415}"/>
-    <hyperlink ref="E49" r:id="rId44" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{6C92E063-4E47-214A-9BCB-D09CE3C56E91}"/>
-    <hyperlink ref="E50" r:id="rId45" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{89A5AA6E-01EE-C24F-B906-AB420573F456}"/>
-    <hyperlink ref="E51" r:id="rId46" display="https://leetcode.com/problems/broken-calculator" xr:uid="{047D6A8F-647F-3948-A682-C52CD62F3C9C}"/>
-    <hyperlink ref="E52" r:id="rId47" display="https://leetcode.com/problems/task-scheduler" xr:uid="{6FE74217-B19A-8D4C-9A6C-8B1C1BD37294}"/>
-    <hyperlink ref="E53" r:id="rId48" display="https://leetcode.com/problems/coin-change" xr:uid="{826A86B3-7BE0-B84E-B076-038D480F9062}"/>
-    <hyperlink ref="E54" r:id="rId49" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{15E064DF-111F-AF44-949E-84C26E70FE68}"/>
-    <hyperlink ref="E55" r:id="rId50" display="https://leetcode.com/problems/subsets-ii" xr:uid="{616BEEF2-3A3C-F04A-B5A5-CAA603D947C2}"/>
-    <hyperlink ref="E56" r:id="rId51" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{482A42CD-FAA1-7846-96DF-4856C0A16451}"/>
-    <hyperlink ref="E57" r:id="rId52" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{1A84B537-1FA8-7947-8D89-0D2FA68A149F}"/>
-    <hyperlink ref="E58" r:id="rId53" display="https://leetcode.com/problems/3sum" xr:uid="{1C796B33-FF86-D34F-BD09-BA0B0E65D94D}"/>
-    <hyperlink ref="E59" r:id="rId54" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{D356BF5C-1F9B-7948-B08B-877898CF19E8}"/>
-    <hyperlink ref="E60" r:id="rId55" display="https://leetcode.com/problems/subsets" xr:uid="{5372FEE4-4D3B-F94D-BF1A-8B002085D2D4}"/>
-    <hyperlink ref="E61" r:id="rId56" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{8D8012F1-379B-9346-87A6-AC01C05BF546}"/>
-    <hyperlink ref="E62" r:id="rId57" display="https://leetcode.com/problems/minesweeper" xr:uid="{CE8F5457-2CA6-404C-AD1B-D262EAAC1138}"/>
-    <hyperlink ref="E63" r:id="rId58" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{E061187A-E1FD-924D-AEC2-976B09F65E1B}"/>
-    <hyperlink ref="E64" r:id="rId59" display="https://leetcode.com/problems/evaluate-division" xr:uid="{469CABBB-89F2-3C43-B936-0C910760CEF3}"/>
-    <hyperlink ref="E65" r:id="rId60" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C2141AE5-AA15-694B-8D50-86AF18CCA8C1}"/>
-    <hyperlink ref="E66" r:id="rId61" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{DD940914-CC5B-594B-92B9-ED4471FC16E9}"/>
-    <hyperlink ref="E67" r:id="rId62" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{47EE9B5F-78D3-5042-9042-D59BBBCCC5EF}"/>
-    <hyperlink ref="E68" r:id="rId63" display="https://leetcode.com/problems/two-sum" xr:uid="{7D6630A0-A1D8-B44E-9330-C062A185CAE8}"/>
-    <hyperlink ref="E69" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{728FF6D2-77BD-844A-87D1-18495125E9CF}"/>
-    <hyperlink ref="E70" r:id="rId65" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{E94D9396-4CA1-6E46-86BE-FAE7D31AC17F}"/>
-    <hyperlink ref="E71" r:id="rId66" display="https://leetcode.com/problems/number-of-distinct-islands" xr:uid="{16985A0D-B84A-0E43-AFE3-29F0CDC8447E}"/>
-    <hyperlink ref="E72" r:id="rId67" display="https://leetcode.com/problems/reconstruct-itinerary" xr:uid="{BFC37351-D430-9140-B170-AC09BC2F231D}"/>
-    <hyperlink ref="E73" r:id="rId68" display="https://leetcode.com/problems/lfu-cache" xr:uid="{AAF9AE58-3B95-7E4C-9449-C5192B84618A}"/>
-    <hyperlink ref="E74" r:id="rId69" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{E044A279-5246-074C-AEE5-D1A133DC9B34}"/>
-    <hyperlink ref="E75" r:id="rId70" display="https://leetcode.com/problems/sqrtx" xr:uid="{C63289B4-39CA-AF4B-8100-35D7311963CD}"/>
-    <hyperlink ref="E76" r:id="rId71" display="https://leetcode.com/problems/coin-change-2" xr:uid="{C33AEFDE-E28E-8B45-B6D5-5D6E675A0272}"/>
-    <hyperlink ref="E77" r:id="rId72" display="https://leetcode.com/problems/my-calendar-i" xr:uid="{E387E23D-8324-A147-BABE-8ACC5BD3E2B6}"/>
-    <hyperlink ref="E78" r:id="rId73" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{54F2D3E8-6745-6745-9B11-54E88AFF7A43}"/>
-    <hyperlink ref="E79" r:id="rId74" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{12B10681-C580-E84B-B261-968967766F0E}"/>
-    <hyperlink ref="E80" r:id="rId75" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{32D1154E-3047-434E-973A-68B3B7A2EF00}"/>
-    <hyperlink ref="E81" r:id="rId76" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{1AF935F4-E8C2-0F41-A139-9F859AC91466}"/>
-    <hyperlink ref="E82" r:id="rId77" display="https://leetcode.com/problems/word-break" xr:uid="{BB296530-1A1C-5447-93E8-A7013B3C7DD8}"/>
-    <hyperlink ref="E83" r:id="rId78" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{E577EB94-19C8-6C41-801C-FE18E8570C29}"/>
-    <hyperlink ref="E84" r:id="rId79" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{C2C2A628-A1D6-BF46-8AA8-17344BEC063E}"/>
-    <hyperlink ref="E85" r:id="rId80" display="https://leetcode.com/problems/design-tic-tac-toe" xr:uid="{F329F38C-0691-244E-8A38-25E5C17688F9}"/>
-    <hyperlink ref="E86" r:id="rId81" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{B57481A0-A20D-FF4D-8845-BAB535D87E41}"/>
-    <hyperlink ref="E87" r:id="rId82" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{4D082C67-C7B5-8E45-9050-D878FAC118F5}"/>
-    <hyperlink ref="E88" r:id="rId83" display="https://leetcode.com/problems/add-digits" xr:uid="{1A91C63D-4163-2E46-9981-41A5BA7FDB36}"/>
-    <hyperlink ref="E89" r:id="rId84" display="https://leetcode.com/problems/binary-search-tree-iterator" xr:uid="{9D0A8447-73EB-2C47-8777-4C785E3CFE54}"/>
-    <hyperlink ref="E90" r:id="rId85" display="https://leetcode.com/problems/inorder-successor-in-bst" xr:uid="{0E6667B1-CCB3-F041-813A-09F5640464BA}"/>
-    <hyperlink ref="E91" r:id="rId86" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{5B19DD30-7201-254D-A46D-757D27FE81B6}"/>
-    <hyperlink ref="E92" r:id="rId87" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{31882198-44BE-6748-95C2-4116A612B08D}"/>
-    <hyperlink ref="E93" r:id="rId88" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{1768CB1C-4E42-1B4A-82A0-68EE858916C5}"/>
-    <hyperlink ref="E94" r:id="rId89" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{1F68E0BE-08C7-F74D-B419-FD9FE2405520}"/>
-    <hyperlink ref="E95" r:id="rId90" display="https://leetcode.com/problems/move-zeroes" xr:uid="{03C66785-086A-C243-B9A0-E10975D124DE}"/>
-    <hyperlink ref="E96" r:id="rId91" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{0F173F3D-B9CD-4D40-8F42-9E52B86A8009}"/>
-    <hyperlink ref="E97" r:id="rId92" display="https://leetcode.com/problems/nim-game" xr:uid="{52CF0D5A-0D1F-D04F-BF7D-7CD57C70CAD9}"/>
-    <hyperlink ref="E98" r:id="rId93" display="https://leetcode.com/problems/accounts-merge" xr:uid="{5D008789-4416-F640-A72F-E9F11AF1BBA7}"/>
-    <hyperlink ref="E99" r:id="rId94" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{97547849-6287-304B-8DF6-E701FB45D7A5}"/>
-    <hyperlink ref="E100" r:id="rId95" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{4CEAF81F-4784-5B49-838E-434FA0646F35}"/>
-    <hyperlink ref="E101" r:id="rId96" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{CD3497C3-318B-3642-9502-E18542969976}"/>
-    <hyperlink ref="E102" r:id="rId97" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{2D7948ED-3E2B-D44B-92A4-8F7A5216D5B6}"/>
-    <hyperlink ref="E103" r:id="rId98" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{DE5C121C-BCBB-4647-BC92-5209C46A463E}"/>
-    <hyperlink ref="E104" r:id="rId99" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{703E2AD3-977C-E044-8188-06353B234698}"/>
-    <hyperlink ref="E105" r:id="rId100" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{251C6EF9-BDAC-7449-9793-0BC01BB969AF}"/>
-    <hyperlink ref="E106" r:id="rId101" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{C20E8202-6B7A-0F4B-A460-D79B767F0ADA}"/>
-    <hyperlink ref="E107" r:id="rId102" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{96940986-5BAA-2549-A662-C1A8A2B6D1C6}"/>
-    <hyperlink ref="E108" r:id="rId103" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{CEC92D35-A8DB-D740-89C1-A93C56FCF2DA}"/>
-    <hyperlink ref="E109" r:id="rId104" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock" xr:uid="{1167A704-9C6A-B940-A070-5A568636CDC8}"/>
-    <hyperlink ref="E110" r:id="rId105" display="https://leetcode.com/problems/next-permutation" xr:uid="{6FBAB6D4-A77B-7B4D-AB35-A0002056E983}"/>
-    <hyperlink ref="E111" r:id="rId106" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{C75029DC-0ACC-0D47-AE5D-70CC7CBD225F}"/>
-    <hyperlink ref="E112" r:id="rId107" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{EEFF68FC-DF5B-8242-A1C7-EA1A19DAE48B}"/>
-    <hyperlink ref="E113" r:id="rId108" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{84A2A66F-C2CC-F748-B163-3620E9FA4148}"/>
-    <hyperlink ref="E114" r:id="rId109" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{EA0ED104-ECD1-D945-A9E3-C8668DE36C3C}"/>
-    <hyperlink ref="E115" r:id="rId110" display="https://leetcode.com/problems/word-ladder" xr:uid="{2E5041C3-C5E2-F74B-9338-A5E6CB39183C}"/>
-    <hyperlink ref="E116" r:id="rId111" display="https://leetcode.com/problems/path-sum" xr:uid="{710A4341-98E1-C642-A547-2BCE219E9D46}"/>
-    <hyperlink ref="E117" r:id="rId112" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{B239678E-19F5-164D-95B0-572D08D62068}"/>
-    <hyperlink ref="E118" r:id="rId113" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{40E8767D-922F-DE4F-ABA6-80EF9DE46074}"/>
-    <hyperlink ref="E119" r:id="rId114" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{4A01246A-4F53-294B-8EB5-0BDF5315F454}"/>
-    <hyperlink ref="E120" r:id="rId115" display="https://leetcode.com/problems/delete-node-in-a-linked-list" xr:uid="{3346BEC1-A81E-F74C-A0A0-9FCC894F0CED}"/>
-    <hyperlink ref="E121" r:id="rId116" display="https://leetcode.com/problems/single-number" xr:uid="{D11421EE-8DC0-5F44-9E90-128516447411}"/>
-    <hyperlink ref="E122" r:id="rId117" display="https://leetcode.com/problems/counting-bits" xr:uid="{21B88E30-2959-9243-97FC-D4F65980221A}"/>
-    <hyperlink ref="E123" r:id="rId118" display="https://leetcode.com/problems/next-greater-element-i" xr:uid="{BFE45A04-7CB6-6E45-9776-9A3658A52C50}"/>
-    <hyperlink ref="E124" r:id="rId119" display="https://leetcode.com/problems/decode-ways" xr:uid="{382BCA7C-172E-804E-A9AE-FC25BAB871F4}"/>
-    <hyperlink ref="E125" r:id="rId120" display="https://leetcode.com/problems/maximal-square" xr:uid="{E1D3F1DE-CE53-5346-B04E-A6227C88DEDE}"/>
-    <hyperlink ref="E126" r:id="rId121" display="https://leetcode.com/problems/reverse-linked-list-ii" xr:uid="{FF7B7E14-5D4F-2C49-ADC5-DA459039CB06}"/>
-    <hyperlink ref="E127" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{A466EC5E-D4BE-4E48-8B5A-E8B6F8F51879}"/>
-    <hyperlink ref="E128" r:id="rId123" display="https://leetcode.com/problems/combination-sum-ii" xr:uid="{E19BA79F-50A6-5340-8DD6-C3862D12CA40}"/>
-    <hyperlink ref="E129" r:id="rId124" display="https://leetcode.com/problems/group-anagrams" xr:uid="{4EBE099D-76FC-4C45-B9C7-038CBDE59026}"/>
-    <hyperlink ref="E130" r:id="rId125" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{C7CA66B6-2E75-FA47-8B4A-849AF69FB091}"/>
-    <hyperlink ref="E131" r:id="rId126" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{A571E4FA-0C55-E547-9E6C-96815151E5D6}"/>
-    <hyperlink ref="E132" r:id="rId127" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii" xr:uid="{60CD5AB9-A995-DD40-BB28-DB8D39EEC909}"/>
-    <hyperlink ref="E133" r:id="rId128" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{11EB8147-8D2C-1643-8AF5-94860351DFE7}"/>
-    <hyperlink ref="E134" r:id="rId129" display="https://leetcode.com/problems/add-strings" xr:uid="{ED31E16D-9539-C543-AB6C-F1D94823C19D}"/>
-    <hyperlink ref="E135" r:id="rId130" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{D961D95C-53EE-B64A-B490-9DAAFFC806BB}"/>
-    <hyperlink ref="E136" r:id="rId131" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{DD6328B0-1D86-8E48-B127-086AB9AD5AF2}"/>
-    <hyperlink ref="E137" r:id="rId132" display="https://leetcode.com/problems/zigzag-conversion" xr:uid="{0C64601D-1BB7-4349-A295-E276D1298AB0}"/>
-    <hyperlink ref="E138" r:id="rId133" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{D054085E-A955-0248-807B-C99068AD3A61}"/>
-    <hyperlink ref="E139" r:id="rId134" display="https://leetcode.com/problems/longest-common-prefix" xr:uid="{B80969C2-6C58-A94C-BB93-8CEED313C9E8}"/>
-    <hyperlink ref="E140" r:id="rId135" display="https://leetcode.com/problems/running-sum-of-1d-array" xr:uid="{2D849471-0C56-7643-8AC4-A48822ACB26C}"/>
-    <hyperlink ref="E141" r:id="rId136" display="https://leetcode.com/problems/palindrome-number" xr:uid="{1E3B859A-B308-3744-A31E-70013BA7E3F5}"/>
-    <hyperlink ref="E142" r:id="rId137" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{A4603FF0-3A67-E442-BAFD-F8BD5E59068E}"/>
-    <hyperlink ref="E143" r:id="rId138" display="https://leetcode.com/problems/find-peak-element" xr:uid="{C6CBC581-D0A8-144A-83E6-49CC8DC0D9ED}"/>
-    <hyperlink ref="E144" r:id="rId139" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{C06D87BE-8F61-8642-86A0-DAB4BC687BF7}"/>
-    <hyperlink ref="E145" r:id="rId140" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{324B63AB-BB18-7F4D-8113-283DC972556E}"/>
-    <hyperlink ref="E146" r:id="rId141" display="https://leetcode.com/problems/course-schedule" xr:uid="{4BD1FE63-D5BB-C74C-91EB-4618206223C3}"/>
-    <hyperlink ref="E147" r:id="rId142" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{1E8FCE2D-1EBA-2F45-8584-880871E3AC48}"/>
-    <hyperlink ref="E148" r:id="rId143" display="https://leetcode.com/problems/jump-game" xr:uid="{5032F134-5475-9D4C-A16D-061C76601C4B}"/>
-    <hyperlink ref="E149" r:id="rId144" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies" xr:uid="{5F2E337D-2FDB-8145-957C-924D3CB5D2E3}"/>
-    <hyperlink ref="E150" r:id="rId145" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{20FAC435-3513-3A4A-8923-84B398AC1EDE}"/>
-    <hyperlink ref="E151" r:id="rId146" display="https://leetcode.com/problems/unique-paths" xr:uid="{2CF0862C-5078-9849-8A39-9A48E225736B}"/>
-    <hyperlink ref="E152" r:id="rId147" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{A935507B-7F88-AA44-911F-E622313B5419}"/>
-    <hyperlink ref="E153" r:id="rId148" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{B54827A6-0B7E-DF41-8A33-A9C93B8F4165}"/>
-    <hyperlink ref="E154" r:id="rId149" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{17B57DCF-D8F6-0E42-B36F-5E79B20E3B13}"/>
-    <hyperlink ref="E155" r:id="rId150" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{8CDC8E3B-09A3-834E-AFD4-CA3512D5A397}"/>
-    <hyperlink ref="E156" r:id="rId151" display="https://leetcode.com/problems/permutations" xr:uid="{55113827-B11B-B646-862E-93D6291DD5C8}"/>
-    <hyperlink ref="E157" r:id="rId152" display="https://leetcode.com/problems/delete-node-in-a-bst" xr:uid="{42DEDC47-BBE7-264D-B23B-66C37C35505A}"/>
-    <hyperlink ref="E158" r:id="rId153" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{02868AA4-4759-BE47-88BB-3C14CB6B8997}"/>
-    <hyperlink ref="E159" r:id="rId154" display="https://leetcode.com/problems/roman-to-integer" xr:uid="{50A7CFC5-ADEF-704F-8DCF-988052143919}"/>
-    <hyperlink ref="E160" r:id="rId155" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{58E09FE4-CDCD-7C41-AF01-EE8B17CC8980}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57164F3-F8C0-9D46-A570-8CAEA0D78F2F}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="180" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="51.1640625" customWidth="1"/>
@@ -11645,27 +8819,27 @@
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="17">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -11684,206 +8858,206 @@
       <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="51"/>
-    </row>
-    <row r="5" spans="1:7" ht="34">
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>332</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>44076</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>210</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="44">
+      <c r="C6" s="49"/>
+      <c r="D6" s="43">
         <v>44076</v>
       </c>
-      <c r="E6" s="52"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="18">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>207</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="44">
+      <c r="C7" s="49"/>
+      <c r="D7" s="43">
         <v>44076</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="18">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="44">
+      <c r="C8" s="49"/>
+      <c r="D8" s="43">
         <v>44076</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="18">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>399</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="44">
+      <c r="C9" s="49"/>
+      <c r="D9" s="43">
         <v>44076</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="18">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>785</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="44">
+      <c r="C10" s="49"/>
+      <c r="D10" s="43">
         <v>44076</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="18">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1153</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="44">
+      <c r="C11" s="49"/>
+      <c r="D11" s="43">
         <v>44076</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="18">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>959</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="44">
+      <c r="C12" s="49"/>
+      <c r="D12" s="43">
         <v>44076</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="18">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>886</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="44">
+      <c r="C13" s="49"/>
+      <c r="D13" s="43">
         <v>44076</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="18">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>323</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="44">
+      <c r="C14" s="49"/>
+      <c r="D14" s="43">
         <v>44076</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="18">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1042</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="44">
+      <c r="C15" s="49"/>
+      <c r="D15" s="43">
         <v>44076</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>765</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="44">
+      <c r="C16" s="49"/>
+      <c r="D16" s="43">
         <v>44076</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="18">
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>310</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="44">
+      <c r="C17" s="49"/>
+      <c r="D17" s="43">
         <v>44076</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -11891,15 +9065,15 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="18">
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>997</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="44">
+      <c r="C18" s="49"/>
+      <c r="D18" s="43">
         <v>44076</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -11907,15 +9081,15 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="18">
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>444</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="44">
+      <c r="C19" s="49"/>
+      <c r="D19" s="43">
         <v>44076</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -11923,15 +9097,15 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="18">
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>743</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="44">
+      <c r="C20" s="49"/>
+      <c r="D20" s="43">
         <v>44076</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -11939,15 +9113,15 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="18">
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>839</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="44">
+      <c r="C21" s="49"/>
+      <c r="D21" s="43">
         <v>44076</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -11955,15 +9129,15 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="18">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1162</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="44">
+      <c r="C22" s="49"/>
+      <c r="D22" s="43">
         <v>44076</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -11971,15 +9145,15 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="18">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1136</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="44">
+      <c r="C23" s="49"/>
+      <c r="D23" s="43">
         <v>44076</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -11987,15 +9161,15 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="18">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1548</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="44">
+      <c r="C24" s="49"/>
+      <c r="D24" s="43">
         <v>44076</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -12003,339 +9177,339 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="18">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>996</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="E25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="18">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1102</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="E26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="18">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1267</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="E27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="18">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="E28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="18">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>685</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="E29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="18">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>802</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="49"/>
       <c r="E30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="18">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1129</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="18">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>854</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="49"/>
       <c r="E32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="18">
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1387</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="49"/>
       <c r="E33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="18">
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>261</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="E34" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="18">
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1043</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="E35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="18">
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1306</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="E36" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="18">
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>928</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="E37" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="18">
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>684</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="E38" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="18">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>841</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="E39" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="18">
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1494</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="E40" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="18">
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1334</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="E41" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="18">
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1135</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="E42" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="18">
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1059</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="E43" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="18">
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1514</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="E44" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="18">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1161</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="E45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="18">
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1361</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C46" s="50"/>
+      <c r="C46" s="49"/>
       <c r="E46" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="18">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>990</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="E47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="18">
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>1168</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="49"/>
       <c r="E48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="18">
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1462</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="50"/>
+      <c r="C49" s="49"/>
       <c r="E49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="18">
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>1557</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="49"/>
       <c r="E50" s="4" t="s">
         <v>1</v>
       </c>
@@ -12400,76 +9574,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942E4357-D236-EC4E-BCB5-53918CC45370}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="116" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" style="34" customWidth="1"/>
     <col min="11" max="11" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="17">
-      <c r="A3" s="32" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -12489,7 +9663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="153">
+    <row r="5" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>42</v>
       </c>
@@ -12514,11 +9688,11 @@
       <c r="H5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -12543,11 +9717,11 @@
       <c r="H6" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>53</v>
       </c>
@@ -12572,11 +9746,11 @@
       <c r="H7" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="68">
+    <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>15</v>
       </c>
@@ -12601,11 +9775,11 @@
       <c r="H8" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>238</v>
       </c>
@@ -12620,9 +9794,9 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" ht="18">
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>56</v>
       </c>
@@ -12647,13 +9821,13 @@
       <c r="H10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>203</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="18">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>121</v>
       </c>
@@ -12668,12 +9842,12 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="35"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>560</v>
       </c>
@@ -12688,12 +9862,12 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="35"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>31</v>
       </c>
@@ -12708,12 +9882,12 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="36"/>
+      <c r="I13" s="35"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="18">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>11</v>
       </c>
@@ -12726,12 +9900,12 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="36"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="18">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>54</v>
       </c>
@@ -12744,12 +9918,12 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="36"/>
+      <c r="I15" s="35"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="18">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>85</v>
       </c>
@@ -12762,12 +9936,12 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="36"/>
+      <c r="I16" s="35"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="18">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>33</v>
       </c>
@@ -12780,12 +9954,12 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="37"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="18">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>88</v>
       </c>
@@ -12798,12 +9972,12 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="35"/>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="18">
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>380</v>
       </c>
@@ -12816,12 +9990,12 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="35"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="18">
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>41</v>
       </c>
@@ -12834,12 +10008,12 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="38"/>
+      <c r="I20" s="37"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="18">
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>128</v>
       </c>
@@ -12852,12 +10026,12 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="35"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="18">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>283</v>
       </c>
@@ -12870,12 +10044,12 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="37"/>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="18">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>289</v>
       </c>
@@ -12888,12 +10062,12 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="37"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="18">
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>48</v>
       </c>
@@ -12906,12 +10080,12 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
-      <c r="I24" s="36"/>
+      <c r="I24" s="35"/>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="18">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
         <v>105</v>
       </c>
@@ -12924,12 +10098,12 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
-      <c r="I25" s="38"/>
+      <c r="I25" s="37"/>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="18">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
         <v>34</v>
       </c>
@@ -12942,12 +10116,12 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="38"/>
+      <c r="I26" s="37"/>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="18">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="24">
         <v>45</v>
       </c>
@@ -12960,12 +10134,12 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="36"/>
+      <c r="I27" s="35"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="18">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
         <v>695</v>
       </c>
@@ -12978,12 +10152,12 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="37"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="18">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
         <v>1152</v>
       </c>
@@ -12996,12 +10170,12 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="38"/>
+      <c r="I29" s="37"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="18">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>152</v>
       </c>
@@ -13014,12 +10188,12 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="35"/>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="18">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>209</v>
       </c>
@@ -13032,12 +10206,12 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="36"/>
+      <c r="I31" s="35"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="18">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
         <v>64</v>
       </c>
@@ -13050,12 +10224,12 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="36"/>
+      <c r="I32" s="35"/>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" ht="18">
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
         <v>287</v>
       </c>
@@ -13068,12 +10242,12 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="35"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" ht="18">
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
         <v>39</v>
       </c>
@@ -13086,12 +10260,12 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="36"/>
+      <c r="I34" s="35"/>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" ht="18">
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
         <v>126</v>
       </c>
@@ -13104,12 +10278,12 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="18">
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="24">
         <v>78</v>
       </c>
@@ -13122,12 +10296,12 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="38"/>
+      <c r="I36" s="37"/>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="18">
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="24">
         <v>75</v>
       </c>
@@ -13140,12 +10314,12 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="38"/>
+      <c r="I37" s="37"/>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="18">
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="24">
         <v>18</v>
       </c>
@@ -13158,12 +10332,12 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="35"/>
       <c r="L38" s="3"/>
       <c r="M38" s="4"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="18">
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="24">
         <v>55</v>
       </c>
@@ -13176,12 +10350,12 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="38"/>
+      <c r="I39" s="37"/>
       <c r="L39" s="3"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14" ht="18">
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="24">
         <v>16</v>
       </c>
@@ -13194,12 +10368,12 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="38"/>
+      <c r="I40" s="37"/>
       <c r="L40" s="3"/>
       <c r="M40" s="4"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="18">
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="24">
         <v>268</v>
       </c>
@@ -13212,12 +10386,12 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="38"/>
+      <c r="I41" s="37"/>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="18">
+    <row r="42" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="24">
         <v>84</v>
       </c>
@@ -13230,12 +10404,12 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="35"/>
       <c r="L42" s="3"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="18">
+    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="24">
         <v>79</v>
       </c>
@@ -13248,12 +10422,12 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="36"/>
+      <c r="I43" s="35"/>
       <c r="L43" s="3"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="18">
+    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="24">
         <v>57</v>
       </c>
@@ -13266,12 +10440,12 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="36"/>
+      <c r="I44" s="35"/>
       <c r="L44" s="3"/>
       <c r="M44" s="4"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="18">
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="24">
         <v>167</v>
       </c>
@@ -13284,12 +10458,12 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="36"/>
+      <c r="I45" s="35"/>
       <c r="L45" s="3"/>
       <c r="M45" s="4"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="18">
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="24">
         <v>122</v>
       </c>
@@ -13302,12 +10476,12 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="38"/>
+      <c r="I46" s="37"/>
       <c r="L46" s="3"/>
       <c r="M46" s="4"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="18">
+    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
         <v>277</v>
       </c>
@@ -13320,12 +10494,12 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="38"/>
+      <c r="I47" s="37"/>
       <c r="L47" s="3"/>
       <c r="M47" s="4"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="18">
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="24">
         <v>1086</v>
       </c>
@@ -13338,12 +10512,12 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="38"/>
+      <c r="I48" s="37"/>
       <c r="L48" s="3"/>
       <c r="M48" s="4"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="18">
+    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="24">
         <v>74</v>
       </c>
@@ -13356,12 +10530,12 @@
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="36"/>
+      <c r="I49" s="35"/>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="18">
+    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="24">
         <v>120</v>
       </c>
@@ -13374,12 +10548,12 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="36"/>
+      <c r="I50" s="35"/>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="18">
+    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="24">
         <v>62</v>
       </c>
@@ -13392,12 +10566,12 @@
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="36"/>
+      <c r="I51" s="35"/>
       <c r="L51" s="3"/>
       <c r="M51" s="4"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="18">
+    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="24">
         <v>169</v>
       </c>
@@ -13410,12 +10584,12 @@
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="35"/>
       <c r="L52" s="3"/>
       <c r="M52" s="4"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="18">
+    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="24">
         <v>532</v>
       </c>
@@ -13428,12 +10602,12 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="35"/>
       <c r="L53" s="3"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="18">
+    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="24">
         <v>1438</v>
       </c>
@@ -13446,12 +10620,12 @@
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="37"/>
+      <c r="I54" s="36"/>
       <c r="L54" s="3"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="18">
+    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="24">
         <v>73</v>
       </c>
@@ -13464,12 +10638,12 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="37"/>
       <c r="L55" s="3"/>
       <c r="M55" s="4"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="18">
+    <row r="56" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="24">
         <v>189</v>
       </c>
@@ -13482,12 +10656,12 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="38"/>
+      <c r="I56" s="37"/>
       <c r="L56" s="3"/>
       <c r="M56" s="4"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="18">
+    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="24">
         <v>1428</v>
       </c>
@@ -13500,12 +10674,12 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="38"/>
+      <c r="I57" s="37"/>
       <c r="L57" s="3"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="18">
+    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>153</v>
       </c>
@@ -13518,12 +10692,12 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="38"/>
+      <c r="I58" s="37"/>
       <c r="L58" s="3"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="18">
+    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="24">
         <v>969</v>
       </c>
@@ -13536,12 +10710,12 @@
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="35"/>
       <c r="L59" s="3"/>
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="18">
+    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="24">
         <v>59</v>
       </c>
@@ -13554,12 +10728,12 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="38"/>
+      <c r="I60" s="37"/>
       <c r="L60" s="3"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="18">
+    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="24">
         <v>974</v>
       </c>
@@ -13572,12 +10746,12 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="38"/>
+      <c r="I61" s="37"/>
       <c r="L61" s="3"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="18">
+    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="24">
         <v>670</v>
       </c>
@@ -13590,12 +10764,12 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
-      <c r="I62" s="38"/>
+      <c r="I62" s="37"/>
       <c r="L62" s="3"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="18">
+    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="24">
         <v>1031</v>
       </c>
@@ -13608,12 +10782,12 @@
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="38"/>
+      <c r="I63" s="37"/>
       <c r="L63" s="3"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="18">
+    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="24">
         <v>509</v>
       </c>
@@ -13626,12 +10800,12 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="38"/>
+      <c r="I64" s="37"/>
       <c r="L64" s="3"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="18">
+    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="24">
         <v>40</v>
       </c>
@@ -13644,12 +10818,12 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="37"/>
+      <c r="I65" s="36"/>
       <c r="L65" s="3"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" ht="18">
+    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>1011</v>
       </c>
@@ -13662,12 +10836,12 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="38"/>
+      <c r="I66" s="37"/>
       <c r="L66" s="3"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" ht="18">
+    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>66</v>
       </c>
@@ -13680,12 +10854,12 @@
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="38"/>
+      <c r="I67" s="37"/>
       <c r="L67" s="3"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" ht="18">
+    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>729</v>
       </c>
@@ -13698,12 +10872,12 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="38"/>
+      <c r="I68" s="37"/>
       <c r="L68" s="3"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="18">
+    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>907</v>
       </c>
@@ -13716,12 +10890,12 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="38"/>
+      <c r="I69" s="37"/>
       <c r="L69" s="3"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="18">
+    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="24">
         <v>26</v>
       </c>
@@ -13734,12 +10908,12 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="38"/>
+      <c r="I70" s="37"/>
       <c r="L70" s="3"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="18">
+    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>448</v>
       </c>
@@ -13752,12 +10926,12 @@
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="35"/>
       <c r="L71" s="3"/>
       <c r="M71" s="4"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="18">
+    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="24">
         <v>162</v>
       </c>
@@ -13770,12 +10944,12 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="37"/>
+      <c r="I72" s="36"/>
       <c r="L72" s="3"/>
       <c r="M72" s="4"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="18">
+    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="24">
         <v>228</v>
       </c>
@@ -13788,12 +10962,12 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="38"/>
+      <c r="I73" s="37"/>
       <c r="L73" s="3"/>
       <c r="M73" s="4"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="18">
+    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>723</v>
       </c>
@@ -13806,12 +10980,12 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="38"/>
+      <c r="I74" s="37"/>
       <c r="L74" s="3"/>
       <c r="M74" s="4"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="18">
+    <row r="75" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="24">
         <v>977</v>
       </c>
@@ -13824,12 +10998,12 @@
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="38"/>
+      <c r="I75" s="37"/>
       <c r="L75" s="3"/>
       <c r="M75" s="4"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="18">
+    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="24">
         <v>123</v>
       </c>
@@ -13842,12 +11016,12 @@
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="38"/>
+      <c r="I76" s="37"/>
       <c r="L76" s="3"/>
       <c r="M76" s="4"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" ht="18">
+    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>621</v>
       </c>
@@ -13860,12 +11034,12 @@
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
-      <c r="I77" s="38"/>
+      <c r="I77" s="37"/>
       <c r="L77" s="3"/>
       <c r="M77" s="4"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="18">
+    <row r="78" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>945</v>
       </c>
@@ -13878,12 +11052,12 @@
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="38"/>
+      <c r="I78" s="37"/>
       <c r="L78" s="3"/>
       <c r="M78" s="4"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="18">
+    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>243</v>
       </c>
@@ -13896,12 +11070,12 @@
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="38"/>
+      <c r="I79" s="37"/>
       <c r="L79" s="3"/>
       <c r="M79" s="4"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="18">
+    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>724</v>
       </c>
@@ -13914,12 +11088,12 @@
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="38"/>
+      <c r="I80" s="37"/>
       <c r="L80" s="3"/>
       <c r="M80" s="4"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="18">
+    <row r="81" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>1375</v>
       </c>
@@ -13932,12 +11106,12 @@
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="35"/>
       <c r="L81" s="3"/>
       <c r="M81" s="4"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="18">
+    <row r="82" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="24">
         <v>1146</v>
       </c>
@@ -13950,12 +11124,12 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="38"/>
+      <c r="I82" s="37"/>
       <c r="L82" s="3"/>
       <c r="M82" s="4"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="18">
+    <row r="83" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="24">
         <v>581</v>
       </c>
@@ -13968,12 +11142,12 @@
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="38"/>
+      <c r="I83" s="37"/>
       <c r="L83" s="3"/>
       <c r="M83" s="4"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" ht="18">
+    <row r="84" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>118</v>
       </c>
@@ -13986,11 +11160,11 @@
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="35"/>
       <c r="L84" s="3"/>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="24">
         <v>689</v>
       </c>
@@ -14003,9 +11177,9 @@
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="24">
         <v>611</v>
       </c>
@@ -14018,9 +11192,9 @@
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="24">
         <v>1007</v>
       </c>
@@ -14033,9 +11207,9 @@
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="24">
         <v>718</v>
       </c>
@@ -14048,9 +11222,9 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="33"/>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="24">
         <v>442</v>
       </c>
@@ -14063,9 +11237,9 @@
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="23"/>
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>63</v>
       </c>
@@ -14078,9 +11252,9 @@
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
-      <c r="I90" s="33"/>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>769</v>
       </c>
@@ -14093,7 +11267,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
-      <c r="I91" s="33"/>
+      <c r="I91" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14679,26 +11853,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C247D4A-474B-3A48-8236-45508C566952}">
   <dimension ref="E9:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:10" ht="18">
+    <row r="9" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="5:10" ht="18">
+    <row r="10" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
@@ -14706,7 +11880,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="5:10" ht="18">
+    <row r="11" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
@@ -14714,7 +11888,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="5:10" ht="18">
+    <row r="12" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
@@ -14722,7 +11896,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="5:10" ht="18">
+    <row r="13" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
@@ -14730,7 +11904,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="5:10" ht="18">
+    <row r="14" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E14" s="6"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
@@ -14738,7 +11912,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="5:10" ht="18">
+    <row r="15" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E15" s="6"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
@@ -14746,14 +11920,14 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="5:10" ht="18">
+    <row r="16" spans="5:10" ht="18" x14ac:dyDescent="0.2">
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="5:11" ht="18">
+    <row r="17" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E17" s="6"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="5:11" ht="18">
+    <row r="18" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
       <c r="J18" s="4" t="s">
@@ -14761,7 +11935,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="5:11" ht="18">
+    <row r="19" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="J19" s="4" t="s">
@@ -14769,7 +11943,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="5:11" ht="18">
+    <row r="20" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="J20" s="4" t="s">
@@ -14777,7 +11951,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="5:11" ht="18">
+    <row r="21" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
       <c r="F21" s="6"/>
       <c r="J21" s="4" t="s">
@@ -14785,7 +11959,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="5:11" ht="18">
+    <row r="22" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
       <c r="J22" s="4" t="s">
@@ -14793,7 +11967,7 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="5:11" ht="18">
+    <row r="23" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
       <c r="J23" s="4" t="s">
@@ -14801,7 +11975,7 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="5:11" ht="18">
+    <row r="24" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
       <c r="J24" s="4" t="s">
@@ -14809,7 +11983,7 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="5:11" ht="18">
+    <row r="25" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
       <c r="F25" s="6"/>
       <c r="J25" s="4" t="s">
@@ -14817,7 +11991,7 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="5:11" ht="18">
+    <row r="26" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="J26" s="4" t="s">
@@ -14825,7 +11999,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="5:11" ht="18">
+    <row r="27" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="J27" s="4" t="s">
@@ -14833,7 +12007,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="5:11" ht="18">
+    <row r="28" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="J28" s="4" t="s">
@@ -14841,7 +12015,7 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="5:11" ht="18">
+    <row r="29" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="J29" s="4" t="s">
@@ -14849,7 +12023,7 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="5:11" ht="18">
+    <row r="30" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
       <c r="J30" s="4" t="s">
@@ -14857,7 +12031,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="5:11" ht="18">
+    <row r="31" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="J31" s="4" t="s">
@@ -14865,7 +12039,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="5:11" ht="18">
+    <row r="32" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="J32" s="4" t="s">
@@ -14873,7 +12047,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="5:11" ht="18">
+    <row r="33" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="J33" s="4" t="s">
@@ -14881,7 +12055,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="5:11" ht="18">
+    <row r="34" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="J34" s="4" t="s">
@@ -14889,7 +12063,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="5:11" ht="18">
+    <row r="35" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="F35" s="6"/>
       <c r="J35" s="4" t="s">
@@ -14897,7 +12071,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="5:11" ht="18">
+    <row r="36" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E36" s="6"/>
       <c r="F36" s="1"/>
       <c r="J36" s="4" t="s">
@@ -14905,7 +12079,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="5:11" ht="18">
+    <row r="37" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="J37" s="4" t="s">
@@ -14913,7 +12087,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="5:11" ht="18">
+    <row r="38" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
       <c r="F38" s="6"/>
       <c r="J38" s="4" t="s">
@@ -14921,7 +12095,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="5:11" ht="18">
+    <row r="39" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="J39" s="4" t="s">
@@ -14929,7 +12103,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="5:11" ht="18">
+    <row r="40" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="J40" s="4" t="s">
@@ -14937,7 +12111,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="5:11" ht="18">
+    <row r="41" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E41" s="6"/>
       <c r="F41" s="1"/>
       <c r="J41" s="4" t="s">
@@ -14945,7 +12119,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="5:11" ht="18">
+    <row r="42" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
       <c r="F42" s="6"/>
       <c r="J42" s="4" t="s">
@@ -14953,7 +12127,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="5:11" ht="18">
+    <row r="43" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="J43" s="4" t="s">
@@ -14961,427 +12135,427 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="5:11" ht="18">
+    <row r="44" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="J44" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="5:11" ht="18">
+    <row r="45" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="J45" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="5:11" ht="18">
+    <row r="46" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
       <c r="J46" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="5:11" ht="18">
+    <row r="47" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="J47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="5:11" ht="18">
+    <row r="48" spans="5:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F48" s="1"/>
       <c r="J48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="6:11" ht="18">
+    <row r="49" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="J49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="6:11" ht="18">
+    <row r="50" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
       <c r="J50" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="6:11" ht="18">
+    <row r="51" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F51" s="1"/>
       <c r="J51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="6:11" ht="18">
+    <row r="52" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F52" s="7"/>
       <c r="J52" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="6:11" ht="18">
+    <row r="53" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F53" s="1"/>
       <c r="J53" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="6:11" ht="18">
+    <row r="54" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F54" s="1"/>
       <c r="J54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="6:11" ht="18">
+    <row r="55" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F55" s="1"/>
       <c r="J55" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="6:11" ht="18">
+    <row r="56" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="J56" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="6:11" ht="18">
+    <row r="57" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F57" s="1"/>
       <c r="J57" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="6:11" ht="18">
+    <row r="58" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F58" s="1"/>
       <c r="J58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="6:11" ht="18">
+    <row r="59" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="J59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="6:11" ht="18">
+    <row r="60" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F60" s="1"/>
       <c r="J60" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="6:11" ht="18">
+    <row r="61" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="J61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="6:11" ht="18">
+    <row r="62" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="J62" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="6:11" ht="18">
+    <row r="63" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F63" s="7"/>
       <c r="J63" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="6:11" ht="18">
+    <row r="64" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F64" s="1"/>
       <c r="J64" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="6:11" ht="18">
+    <row r="65" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F65" s="1"/>
       <c r="J65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="6:11" ht="18">
+    <row r="66" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F66" s="1"/>
       <c r="J66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="6:11" ht="18">
+    <row r="67" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="J67" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="6:11" ht="18">
+    <row r="68" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F68" s="1"/>
       <c r="J68" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="6:11" ht="18">
+    <row r="69" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F69" s="1"/>
       <c r="J69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="6:11" ht="18">
+    <row r="70" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="J70" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="6:11" ht="18">
+    <row r="71" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F71" s="1"/>
       <c r="J71" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="6:11" ht="18">
+    <row r="72" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F72" s="1"/>
       <c r="J72" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="6:11" ht="18">
+    <row r="73" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F73" s="1"/>
       <c r="J73" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="6:11" ht="18">
+    <row r="74" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F74" s="1"/>
       <c r="J74" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="6:11" ht="18">
+    <row r="75" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="J75" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="6:11" ht="18">
+    <row r="76" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F76" s="1"/>
       <c r="J76" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="6:11" ht="18">
+    <row r="77" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F77" s="1"/>
       <c r="J77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="6:11" ht="18">
+    <row r="78" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="J78" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="6:11" ht="18">
+    <row r="79" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F79" s="1"/>
       <c r="J79" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="6:11" ht="18">
+    <row r="80" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="J80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="6:11" ht="18">
+    <row r="81" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F81" s="1"/>
       <c r="J81" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="6:11" ht="18">
+    <row r="82" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F82" s="1"/>
       <c r="J82" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="6:11" ht="18">
+    <row r="83" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F83" s="1"/>
       <c r="J83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="6:11" ht="18">
+    <row r="84" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F84" s="1"/>
       <c r="J84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="6:11" ht="18">
+    <row r="85" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F85" s="1"/>
       <c r="J85" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="6:11" ht="18">
+    <row r="86" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F86" s="1"/>
       <c r="J86" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="6:11" ht="18">
+    <row r="87" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F87" s="1"/>
       <c r="J87" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="6:11" ht="18">
+    <row r="88" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F88" s="1"/>
       <c r="J88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="6:11" ht="18">
+    <row r="89" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F89" s="1"/>
       <c r="J89" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="6:11" ht="18">
+    <row r="90" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="J90" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="6:11" ht="18">
+    <row r="91" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F91" s="1"/>
       <c r="J91" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="6:11" ht="18">
+    <row r="92" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F92" s="1"/>
       <c r="J92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="6:11" ht="18">
+    <row r="93" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F93" s="1"/>
       <c r="J93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="6:11" ht="18">
+    <row r="94" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F94" s="1"/>
       <c r="J94" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="6:11" ht="18">
+    <row r="95" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F95" s="1"/>
       <c r="J95" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="6:11" ht="18">
+    <row r="96" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F96" s="1"/>
       <c r="J96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="6:11" ht="18">
+    <row r="97" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F97" s="1"/>
       <c r="J97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="6:11" ht="18">
+    <row r="98" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F98" s="1"/>
       <c r="J98" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="6:11" ht="18">
+    <row r="99" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F99" s="1"/>
       <c r="J99" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="6:11" ht="18">
+    <row r="100" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F100" s="7"/>
       <c r="J100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="6:11" ht="18">
+    <row r="101" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F101" s="1"/>
       <c r="J101" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="6:11" ht="18">
+    <row r="102" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F102" s="1"/>
       <c r="J102" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="6:11" ht="18">
+    <row r="103" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F103" s="1"/>
       <c r="J103" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="6:11" ht="18">
+    <row r="104" spans="6:11" ht="18" x14ac:dyDescent="0.2">
       <c r="F104" s="1"/>
       <c r="J104" s="4" t="s">
         <v>1</v>
@@ -15393,7 +12567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E52EC4F-DD2A-D64E-818D-1B4F76DD8A8D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -15401,26 +12575,26 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="30" customFormat="1" ht="24">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>496</v>
       </c>
@@ -15428,7 +12602,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>121</v>
       </c>
@@ -15441,17 +12615,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE66D00-6382-1444-B421-51ABB72546C6}">
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView zoomScale="192" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -15462,14 +12636,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="49">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
         <v>44070</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>198</v>
       </c>
     </row>
